--- a/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -4467,8 +4467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:L10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -7298,7 +7298,7 @@
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L12"/>
+      <selection activeCell="A15" sqref="A15:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -9860,7 +9860,7 @@
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:L10"/>
+      <selection activeCell="A8" sqref="A8:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -12276,8 +12276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:L10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -17423,7 +17423,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:L10"/>
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>

--- a/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="4"/>
+    <workbookView windowWidth="16275" windowHeight="12030" tabRatio="590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$52</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="174">
   <si>
     <t>[교재구매]</t>
   </si>
@@ -137,9 +137,8 @@
 2. 확인 버튼을 클릭</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 선택 팝업(확인/취소)이 화면에 노출
-2. 장바구니 화면으로 이동
-</t>
+    <t>1. 선택 팝업(확인/취소)이 화면에 노출
+2. 장바구니 화면으로 이동</t>
   </si>
   <si>
     <t>1. 장바구니 담기 버튼을 클릭
@@ -155,10 +154,6 @@
   <si>
     <t>1. 장바구니&gt;&gt; 버튼을 클릭
 2. 확인 버튼을 클릭</t>
-  </si>
-  <si>
-    <t>1. 선택 팝업(확인/취소)이 화면에 노출
-2. 장바구니 화면으로 이동</t>
   </si>
   <si>
     <t>1. 장바구니&gt;&gt; 버튼을 클릭
@@ -500,6 +495,11 @@
 2. 주문완료 페이지로 이동</t>
   </si>
   <si>
+    <t>[이름/연락처/주소/입금계좌/주문자동의가 모두 입력 또는 체크 되어있는 경우]
+1. 결제하기 버튼 클릭
+2. 취소 버튼 클릭</t>
+  </si>
+  <si>
     <t>[이름이 입력 되어있지 않은 경우]
 1. 결제하기 버튼 클릭</t>
   </si>
@@ -630,153 +630,175 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color theme="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FF800080"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
     </font>
   </fonts>
   <fills count="34">
@@ -784,104 +806,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.150000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -911,19 +840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="9" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <fgColor theme="8" tint="0.39998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -935,7 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
+        <fgColor theme="7" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -947,7 +870,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
+        <fgColor theme="6" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -959,7 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
+        <fgColor theme="4" tint="0.39998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -971,13 +978,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
+        <fgColor theme="6" tint="0.39998"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1152,21 +1171,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1177,15 +1181,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499980"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,6 +1205,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.49998"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,168 +1272,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="20" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="16" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="15" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1423,10 +1442,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1435,10 +1454,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1450,7 +1469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1471,13 +1490,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1489,7 +1508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1506,6 +1525,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1549,65 +1577,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
     <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
     <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
     <cellStyle name="표준 2" xfId="49"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1896,26 +1930,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.2571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.752380952381" customWidth="1"/>
+    <col min="4" max="5" width="15.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="5.62857142857143" customWidth="1"/>
+    <col min="7" max="8" width="15.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="5.62857142857143" customWidth="1"/>
+    <col min="10" max="11" width="15.6285714285714" customWidth="1"/>
+    <col min="12" max="12" width="5.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1966,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1947,8 +1982,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
-    <row r="4" spans="1:12">
+    <row r="3" ht="5.1" customHeight="1"/>
+    <row r="4" spans="4:11">
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="4:11">
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +2018,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
@@ -2000,8 +2035,8 @@
       <c r="K7" s="8"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="49" t="s">
+    <row r="8" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A8" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="10"/>
@@ -2032,8 +2067,8 @@
       <c r="K9" s="12"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="49" t="s">
+    <row r="10" ht="60" customHeight="1" spans="1:12">
+      <c r="A10" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="10"/>
@@ -2064,8 +2099,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" ht="100.5" customHeight="1" spans="1:12">
+      <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -2080,7 +2115,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+    <row r="13" ht="5.1" customHeight="1" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2094,7 +2129,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2153,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="49.500000" customHeight="1">
+    <row r="15" ht="49.5" customHeight="1" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2173,7 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12" ht="49.500000" customHeight="1">
+    <row r="16" ht="49.5" customHeight="1" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -2158,7 +2193,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" ht="49.500000" customHeight="1">
+    <row r="17" ht="49.5" customHeight="1" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -2178,7 +2213,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" ht="49.500000" customHeight="1">
+    <row r="18" ht="49.5" customHeight="1" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2198,7 +2233,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" ht="49.500000" customHeight="1">
+    <row r="19" ht="49.5" customHeight="1" spans="1:12">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2253,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" ht="33.000000" customHeight="1">
-      <c r="A20" s="45" t="s">
+    <row r="20" ht="33" customHeight="1" spans="1:12">
+      <c r="A20" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="33" t="s">
@@ -2238,17 +2273,17 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" ht="34.500000" customHeight="1">
-      <c r="A21" s="45" t="s">
+    <row r="21" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A21" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -2258,15 +2293,15 @@
       <c r="K21" s="30"/>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" ht="34.500000" customHeight="1">
+    <row r="22" ht="34.5" customHeight="1" spans="1:12">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="33" t="s">
         <v>37</v>
       </c>
@@ -2278,17 +2313,17 @@
       <c r="K22" s="30"/>
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="1:12" ht="34.500000" customHeight="1">
+    <row r="23" ht="34.5" customHeight="1" spans="1:12">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -2298,15 +2333,15 @@
       <c r="K23" s="30"/>
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="1:12" ht="54.750000" customHeight="1">
+    <row r="24" ht="54.75" customHeight="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="33" t="s">
         <v>37</v>
       </c>
@@ -2318,7 +2353,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="2:12">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -2331,7 +2366,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="2:12">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -2344,7 +2379,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="2:12">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2357,7 +2392,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="2:12">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -2370,7 +2405,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="2:12">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -2383,7 +2418,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="2:12">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -2396,7 +2431,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="2:12">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -2409,7 +2444,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="2:12">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -3904,7 +3939,7 @@
       <c r="K146" s="22"/>
       <c r="L146" s="22"/>
     </row>
-    <row r="147" spans="2:12">
+    <row r="147" spans="2:7">
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -4457,33 +4492,34 @@
     <mergeCell ref="B147:D147"/>
     <mergeCell ref="E147:G147"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.2571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.752380952381" customWidth="1"/>
+    <col min="4" max="5" width="15.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="5.62857142857143" customWidth="1"/>
+    <col min="7" max="8" width="15.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="5.62857142857143" customWidth="1"/>
+    <col min="10" max="11" width="15.6285714285714" customWidth="1"/>
+    <col min="12" max="12" width="5.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4499,9 +4535,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4515,10 +4551,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
-    <row r="4" spans="1:12" s="0" customFormat="1">
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
+    <row r="3" ht="5.1" customHeight="1"/>
+    <row r="4" customFormat="1" spans="4:11">
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4532,7 +4566,6 @@
       <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="0"/>
       <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4540,9 +4573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="0" customFormat="1">
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
+    <row r="5" customFormat="1" spans="4:11">
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +4587,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
@@ -4573,9 +4604,9 @@
       <c r="K7" s="8"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>43</v>
+    <row r="8" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A8" s="52" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -4605,9 +4636,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>44</v>
+    <row r="10" ht="60" customHeight="1" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4637,8 +4668,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" ht="100.5" customHeight="1" spans="1:12">
+      <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -4653,7 +4684,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+    <row r="13" ht="5.1" customHeight="1" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4667,7 +4698,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -4691,407 +4722,407 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="49.500000" customHeight="1">
-      <c r="A15" s="37" t="s">
+    <row r="15" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A15" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12" ht="49.500000" customHeight="1">
-      <c r="A16" s="37" t="s">
+    <row r="16" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A16" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
       <c r="J16" s="32"/>
       <c r="K16" s="30"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" ht="49.500000" customHeight="1">
-      <c r="A17" s="37" t="s">
+    <row r="17" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A17" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
       <c r="K17" s="30"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" ht="49.500000" customHeight="1">
-      <c r="A18" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="41" t="s">
+    <row r="18" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
       <c r="K18" s="30"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" ht="49.500000" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="41" t="s">
+    <row r="19" ht="49.5" customHeight="1" spans="1:12">
+      <c r="A19" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
       <c r="K19" s="30"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12" ht="33.000000" customHeight="1">
-      <c r="A20" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="41" t="s">
+    <row r="20" ht="33" customHeight="1" spans="1:12">
+      <c r="A20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:12" ht="34.500000" customHeight="1">
-      <c r="A21" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="41" t="s">
+    <row r="21" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A21" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
       <c r="K21" s="30"/>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="1:12" ht="34.500000" customHeight="1">
-      <c r="A22" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="41" t="s">
+    <row r="22" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A22" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
       <c r="K22" s="30"/>
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="1:12" ht="34.500000" customHeight="1">
-      <c r="A23" s="37" t="s">
+    <row r="23" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A23" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="30"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32"/>
       <c r="K23" s="30"/>
       <c r="L23" s="32"/>
     </row>
-    <row r="24" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A24" s="37" t="s">
+    <row r="24" ht="54.75" customHeight="1" spans="1:12">
+      <c r="A24" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A25" s="37" t="s">
+    <row r="25" ht="54.75" customHeight="1" spans="1:12">
+      <c r="A25" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="30"/>
       <c r="I25" s="31"/>
       <c r="J25" s="32"/>
       <c r="K25" s="30"/>
       <c r="L25" s="32"/>
     </row>
-    <row r="26" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A26" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="38" t="s">
+    <row r="26" ht="54.75" customHeight="1" spans="1:12">
+      <c r="A26" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
       <c r="J26" s="32"/>
       <c r="K26" s="30"/>
       <c r="L26" s="32"/>
     </row>
-    <row r="27" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A27" s="37" t="s">
+    <row r="27" ht="54.75" customHeight="1" spans="1:12">
+      <c r="A27" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="30"/>
       <c r="I27" s="31"/>
       <c r="J27" s="32"/>
       <c r="K27" s="30"/>
       <c r="L27" s="32"/>
     </row>
-    <row r="28" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A28" s="44" t="s">
+    <row r="28" ht="54.75" customHeight="1" spans="1:12">
+      <c r="A28" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="30"/>
       <c r="I28" s="31"/>
       <c r="J28" s="32"/>
       <c r="K28" s="30"/>
       <c r="L28" s="32"/>
     </row>
-    <row r="29" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A29" s="44" t="s">
+    <row r="29" ht="54.75" customHeight="1" spans="1:12">
+      <c r="A29" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
     </row>
-    <row r="30" spans="1:12" ht="45.000000" customHeight="1">
-      <c r="A30" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="35" t="s">
+    <row r="30" ht="45" customHeight="1" spans="1:12">
+      <c r="A30" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
     </row>
-    <row r="31" spans="1:12" ht="48.000000" customHeight="1">
-      <c r="A31" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="35" t="s">
+    <row r="31" ht="48" customHeight="1" spans="1:12">
+      <c r="A31" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="40"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
     </row>
-    <row r="32" spans="1:12" ht="48.750000" customHeight="1">
-      <c r="A32" s="44" t="s">
+    <row r="32" ht="48.75" customHeight="1" spans="1:12">
+      <c r="A32" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
     </row>
-    <row r="33" spans="1:12" ht="33.750000" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
+    <row r="33" ht="33.75" customHeight="1" spans="1:12">
+      <c r="A33" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
     </row>
-    <row r="34" spans="1:12" ht="51.000000" customHeight="1">
-      <c r="A34" s="44" t="s">
+    <row r="34" ht="51" customHeight="1" spans="1:12">
+      <c r="A34" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="2:12">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -5104,7 +5135,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="2:12">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -5117,7 +5148,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="2:12">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -5130,7 +5161,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="2:12">
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -5143,7 +5174,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="2:12">
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
@@ -5156,7 +5187,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="2:12">
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -5169,7 +5200,7 @@
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="2:12">
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -5182,7 +5213,7 @@
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="2:12">
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -5195,7 +5226,7 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="2:12">
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -5208,7 +5239,7 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="2:12">
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -5221,7 +5252,7 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="2:12">
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -5234,7 +5265,7 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="2:12">
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -5247,7 +5278,7 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="2:12">
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -5260,7 +5291,7 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="2:12">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -6690,7 +6721,7 @@
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
     </row>
-    <row r="158" spans="2:12" s="0" customFormat="1">
+    <row r="158" customFormat="1" spans="2:7">
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
@@ -7287,33 +7318,34 @@
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="E158:G158"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.2571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.752380952381" customWidth="1"/>
+    <col min="4" max="5" width="15.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="5.62857142857143" customWidth="1"/>
+    <col min="7" max="8" width="15.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="5.62857142857143" customWidth="1"/>
+    <col min="10" max="11" width="15.6285714285714" customWidth="1"/>
+    <col min="12" max="12" width="5.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7329,9 +7361,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7345,8 +7377,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
-    <row r="4" spans="1:12" s="0" customFormat="1">
+    <row r="3" ht="5.1" customHeight="1"/>
+    <row r="4" customFormat="1" spans="4:11">
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -7367,7 +7399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="0" customFormat="1">
+    <row r="5" customFormat="1" spans="4:11">
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -7381,7 +7413,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
@@ -7398,9 +7430,9 @@
       <c r="K7" s="8"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>80</v>
+    <row r="8" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A8" s="52" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7430,9 +7462,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>81</v>
+    <row r="10" ht="60" customHeight="1" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -7462,8 +7494,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" ht="100.5" customHeight="1" spans="1:12">
+      <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -7478,7 +7510,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+    <row r="13" ht="5.1" customHeight="1" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -7492,7 +7524,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -7516,17 +7548,17 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="30.000000">
+    <row r="15" ht="30" spans="1:12">
       <c r="A15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
@@ -7536,17 +7568,17 @@
       <c r="K15" s="30"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="30.000000">
+    <row r="16" ht="30" spans="1:12">
       <c r="A16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -7556,17 +7588,17 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:13" ht="30.000000">
+    <row r="17" ht="30" spans="1:12">
       <c r="A17" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -7576,17 +7608,17 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:13" ht="30.000000">
+    <row r="18" ht="30" spans="1:12">
       <c r="A18" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>91</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>92</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="28"/>
@@ -7596,17 +7628,17 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:13" ht="30.000000">
+    <row r="19" ht="30" spans="1:12">
       <c r="A19" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -7616,17 +7648,17 @@
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:13" ht="30.000000">
+    <row r="20" ht="30" spans="1:12">
       <c r="A20" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -7636,17 +7668,17 @@
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
     </row>
-    <row r="21" spans="1:13" ht="30.000000">
+    <row r="21" ht="30" spans="1:12">
       <c r="A21" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -7656,17 +7688,17 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="1:13" ht="30.000000">
+    <row r="22" ht="30" spans="1:12">
       <c r="A22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="33" t="s">
         <v>101</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="33" t="s">
-        <v>102</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -7676,28 +7708,28 @@
       <c r="K22" s="30"/>
       <c r="L22" s="32"/>
     </row>
-    <row r="23" spans="1:13" ht="30.000000">
+    <row r="23" ht="30" spans="1:13">
       <c r="A23" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23" s="33"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="2:12">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -7710,7 +7742,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="2:12">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -7723,7 +7755,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="2:12">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -7736,7 +7768,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="2:12">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -7749,7 +7781,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="2:12">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -7762,7 +7794,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="2:12">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -7775,7 +7807,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="2:12">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -7788,7 +7820,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="2:12">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -7801,7 +7833,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="2:12">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -9296,7 +9328,7 @@
       <c r="K146" s="22"/>
       <c r="L146" s="22"/>
     </row>
-    <row r="147" spans="2:12" s="0" customFormat="1">
+    <row r="147" customFormat="1" spans="2:7">
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -9849,33 +9881,34 @@
     <mergeCell ref="B147:D147"/>
     <mergeCell ref="E147:G147"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.2571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.752380952381" customWidth="1"/>
+    <col min="4" max="5" width="15.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="5.62857142857143" customWidth="1"/>
+    <col min="7" max="8" width="15.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="5.62857142857143" customWidth="1"/>
+    <col min="10" max="11" width="15.6285714285714" customWidth="1"/>
+    <col min="12" max="12" width="5.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9891,9 +9924,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -9907,8 +9940,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
-    <row r="4" spans="1:12" s="0" customFormat="1">
+    <row r="3" ht="5.1" customHeight="1"/>
+    <row r="4" customFormat="1" spans="4:11">
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -9929,7 +9962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="0" customFormat="1">
+    <row r="5" customFormat="1" spans="4:11">
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -9943,7 +9976,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
@@ -9960,9 +9993,9 @@
       <c r="K7" s="8"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>106</v>
+    <row r="8" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A8" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -9992,9 +10025,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>81</v>
+    <row r="10" ht="60" customHeight="1" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -10024,8 +10057,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" ht="100.5" customHeight="1" spans="1:12">
+      <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -10040,7 +10073,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+    <row r="13" ht="5.1" customHeight="1" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -10054,7 +10087,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -10078,17 +10111,17 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="30.000000">
+    <row r="15" ht="30" spans="1:12">
       <c r="A15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>107</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -10098,17 +10131,17 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12" ht="30.000000">
+    <row r="16" ht="30" spans="1:12">
       <c r="A16" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -10118,17 +10151,17 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12" ht="30.000000">
+    <row r="17" ht="30" spans="1:12">
       <c r="A17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>113</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -10138,7 +10171,7 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="2:12">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -10151,7 +10184,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="2:12">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -10164,7 +10197,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="2:12">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -10177,7 +10210,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="2:12">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -10190,7 +10223,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="2:12">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -10203,7 +10236,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="2:12">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -10216,7 +10249,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="2:12">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -10229,7 +10262,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="2:12">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -10242,7 +10275,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="2:12">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -10255,7 +10288,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="2:12">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -10268,7 +10301,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="2:12">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -10281,7 +10314,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="2:12">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -10294,7 +10327,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="2:12">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -10307,7 +10340,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="2:12">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -10320,7 +10353,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="2:12">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -11737,7 +11770,7 @@
       <c r="K140" s="22"/>
       <c r="L140" s="22"/>
     </row>
-    <row r="141" spans="2:12" s="0" customFormat="1">
+    <row r="141" customFormat="1" spans="2:7">
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
@@ -12266,33 +12299,34 @@
     <mergeCell ref="B141:D141"/>
     <mergeCell ref="E141:G141"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.2571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.752380952381" customWidth="1"/>
+    <col min="4" max="5" width="15.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="5.62857142857143" customWidth="1"/>
+    <col min="7" max="8" width="15.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="5.62857142857143" customWidth="1"/>
+    <col min="10" max="11" width="15.6285714285714" customWidth="1"/>
+    <col min="12" max="12" width="5.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12308,9 +12342,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -12324,8 +12358,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
-    <row r="4" spans="1:12" s="0" customFormat="1">
+    <row r="3" ht="5.1" customHeight="1"/>
+    <row r="4" customFormat="1" spans="4:11">
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -12346,7 +12380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="0" customFormat="1">
+    <row r="5" customFormat="1" spans="4:11">
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -12360,7 +12394,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
@@ -12377,9 +12411,9 @@
       <c r="K7" s="8"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>116</v>
+    <row r="8" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A8" s="52" t="s">
+        <v>115</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -12409,9 +12443,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>81</v>
+    <row r="10" ht="60" customHeight="1" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -12441,8 +12475,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" ht="100.5" customHeight="1" spans="1:12">
+      <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -12457,7 +12491,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+    <row r="13" ht="5.1" customHeight="1" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -12471,7 +12505,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -12495,17 +12529,17 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="60.000000">
+    <row r="15" ht="60" spans="1:12">
       <c r="A15" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>118</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -12515,17 +12549,17 @@
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12" ht="60.000000">
+    <row r="16" ht="60" spans="1:12">
       <c r="A16" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>120</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>121</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -12535,17 +12569,17 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12" ht="60.000000">
+    <row r="17" ht="60" spans="1:12">
       <c r="A17" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -12555,17 +12589,17 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12" ht="60.000000">
+    <row r="18" ht="60" spans="1:12">
       <c r="A18" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -12575,17 +12609,17 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" ht="60.000000">
+    <row r="19" ht="60" spans="1:12">
       <c r="A19" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -12595,17 +12629,17 @@
       <c r="K19" s="21"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12" ht="60.000000">
+    <row r="20" ht="60" spans="1:12">
       <c r="A20" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -12615,17 +12649,17 @@
       <c r="K20" s="21"/>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12" ht="60.000000">
+    <row r="21" ht="60" spans="1:12">
       <c r="A21" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -12635,72 +12669,72 @@
       <c r="K21" s="21"/>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" ht="60.000000">
+    <row r="22" ht="60" spans="1:12">
       <c r="A22" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="28"/>
-    </row>
-    <row r="23" spans="1:12" ht="60.000000">
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" ht="60" spans="1:12">
       <c r="A23" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:12" ht="60.000000">
+      <c r="H23" s="21"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" ht="60" spans="1:12">
       <c r="A24" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="28"/>
-    </row>
-    <row r="25" spans="1:12" ht="60.000000">
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" ht="60" spans="1:12">
       <c r="A25" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
@@ -12715,17 +12749,17 @@
       <c r="K25" s="21"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="1:12" ht="60.000000">
+    <row r="26" ht="60" spans="1:12">
       <c r="A26" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
@@ -12735,17 +12769,17 @@
       <c r="K26" s="21"/>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="1:12" ht="60.000000">
+    <row r="27" ht="60" spans="1:12">
       <c r="A27" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="19"/>
@@ -12755,17 +12789,17 @@
       <c r="K27" s="21"/>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" ht="60.000000">
+    <row r="28" ht="60" spans="1:12">
       <c r="A28" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
       <c r="E28" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="19"/>
@@ -12775,20 +12809,27 @@
       <c r="K28" s="21"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:12">
+    <row r="29" ht="60" spans="1:12">
+      <c r="A29" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -12801,7 +12842,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="2:12">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -12814,7 +12855,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="2:12">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -14374,16 +14415,29 @@
       <c r="K151" s="22"/>
       <c r="L151" s="22"/>
     </row>
-    <row r="152" spans="2:12" s="0" customFormat="1">
+    <row r="152" spans="2:12">
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
       <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="22"/>
+    </row>
+    <row r="153" customFormat="1" spans="2:7">
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="566">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:L7"/>
@@ -14946,34 +15000,39 @@
     <mergeCell ref="K151:L151"/>
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="E152:G152"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.2571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.752380952381" customWidth="1"/>
+    <col min="4" max="5" width="15.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="5.62857142857143" customWidth="1"/>
+    <col min="7" max="8" width="15.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="5.62857142857143" customWidth="1"/>
+    <col min="10" max="11" width="15.6285714285714" customWidth="1"/>
+    <col min="12" max="12" width="5.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14989,7 +15048,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>148</v>
       </c>
@@ -15005,8 +15064,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
-    <row r="4" spans="1:12" s="0" customFormat="1">
+    <row r="3" ht="5.1" customHeight="1"/>
+    <row r="4" customFormat="1" spans="4:11">
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -15027,7 +15086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="0" customFormat="1">
+    <row r="5" customFormat="1" spans="4:11">
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -15041,7 +15100,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
@@ -15058,8 +15117,8 @@
       <c r="K7" s="8"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="49" t="s">
+    <row r="8" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A8" s="52" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="10"/>
@@ -15090,9 +15149,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>81</v>
+    <row r="10" ht="60" customHeight="1" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -15122,8 +15181,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" ht="100.5" customHeight="1" spans="1:12">
+      <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -15138,7 +15197,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+    <row r="13" ht="5.1" customHeight="1" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -15152,7 +15211,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -15176,7 +15235,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="30.000000">
+    <row r="15" ht="30" spans="1:12">
       <c r="A15" s="29" t="s">
         <v>150</v>
       </c>
@@ -15196,7 +15255,7 @@
       <c r="K15" s="30"/>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="1:12" ht="30.000000">
+    <row r="16" ht="30" spans="1:12">
       <c r="A16" s="29" t="s">
         <v>153</v>
       </c>
@@ -15216,7 +15275,7 @@
       <c r="K16" s="30"/>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="1:12" ht="30.000000">
+    <row r="17" ht="30" spans="1:12">
       <c r="A17" s="29" t="s">
         <v>155</v>
       </c>
@@ -15236,7 +15295,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="1:12" ht="30.000000">
+    <row r="18" ht="30" spans="1:12">
       <c r="A18" s="29" t="s">
         <v>157</v>
       </c>
@@ -15256,7 +15315,7 @@
       <c r="K18" s="30"/>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="1:12" ht="30.000000">
+    <row r="19" ht="30" spans="1:12">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -15266,7 +15325,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
       <c r="E19" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
@@ -15276,7 +15335,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="2:12">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -15289,7 +15348,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="2:12">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -15302,7 +15361,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="2:12">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -15315,7 +15374,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="2:12">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -15328,7 +15387,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="2:12">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -15341,7 +15400,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="2:12">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -15354,7 +15413,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="2:12">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -15367,7 +15426,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="2:12">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -15380,7 +15439,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="2:12">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -15393,7 +15452,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="2:12">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -15406,7 +15465,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="2:12">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -15419,7 +15478,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="2:12">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -15432,7 +15491,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="2:12">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -16875,7 +16934,7 @@
       <c r="K142" s="22"/>
       <c r="L142" s="22"/>
     </row>
-    <row r="143" spans="2:12" s="0" customFormat="1">
+    <row r="143" customFormat="1" spans="2:7">
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
@@ -17412,33 +17471,34 @@
     <mergeCell ref="B143:D143"/>
     <mergeCell ref="E143:G143"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.2571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.752380952381" customWidth="1"/>
+    <col min="4" max="5" width="15.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="5.62857142857143" customWidth="1"/>
+    <col min="7" max="8" width="15.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="5.62857142857143" customWidth="1"/>
+    <col min="10" max="11" width="15.6285714285714" customWidth="1"/>
+    <col min="12" max="12" width="5.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17454,7 +17514,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="30.750000" customHeight="1">
+    <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
@@ -17470,8 +17530,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
-    <row r="4" spans="1:12" s="0" customFormat="1">
+    <row r="3" ht="5.1" customHeight="1"/>
+    <row r="4" customFormat="1" spans="4:11">
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -17492,7 +17552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="0" customFormat="1">
+    <row r="5" customFormat="1" spans="4:11">
       <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
@@ -17506,7 +17566,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+    <row r="6" ht="5.1" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
         <v>9</v>
@@ -17523,8 +17583,8 @@
       <c r="K7" s="8"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="49" t="s">
+    <row r="8" ht="63.75" customHeight="1" spans="1:12">
+      <c r="A8" s="52" t="s">
         <v>161</v>
       </c>
       <c r="B8" s="10"/>
@@ -17555,9 +17615,9 @@
       <c r="K9" s="12"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="49" t="s">
-        <v>81</v>
+    <row r="10" ht="60" customHeight="1" spans="1:12">
+      <c r="A10" s="52" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -17587,8 +17647,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="50" t="s">
+    <row r="12" ht="100.5" customHeight="1" spans="1:12">
+      <c r="A12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -17603,7 +17663,7 @@
       <c r="K12" s="14"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:12" ht="5.100000" customHeight="1">
+    <row r="13" ht="5.1" customHeight="1" spans="1:12">
       <c r="A13" s="15"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -17617,7 +17677,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" ht="24.000000" customHeight="1">
+    <row r="14" ht="24" customHeight="1" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -17641,7 +17701,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="33.000000">
+    <row r="15" ht="33" spans="1:12">
       <c r="A15" s="16" t="s">
         <v>162</v>
       </c>
@@ -17661,7 +17721,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" ht="33.000000">
+    <row r="16" ht="33" spans="1:12">
       <c r="A16" s="16" t="s">
         <v>164</v>
       </c>
@@ -17681,7 +17741,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" ht="33.000000">
+    <row r="17" ht="33" spans="1:12">
       <c r="A17" s="16" t="s">
         <v>166</v>
       </c>
@@ -17701,7 +17761,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" ht="33.000000">
+    <row r="18" ht="33" spans="1:12">
       <c r="A18" s="16" t="s">
         <v>168</v>
       </c>
@@ -17721,7 +17781,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="28"/>
     </row>
-    <row r="19" spans="1:12" ht="33.000000">
+    <row r="19" ht="33" spans="1:12">
       <c r="A19" s="16" t="s">
         <v>171</v>
       </c>
@@ -17741,7 +17801,7 @@
       <c r="K19" s="21"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="2:12">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -17754,7 +17814,7 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="2:12">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -17767,7 +17827,7 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="2:12">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -17780,7 +17840,7 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="2:12">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -17793,7 +17853,7 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="2:12">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -17806,7 +17866,7 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="2:12">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -17819,7 +17879,7 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="2:12">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -17832,7 +17892,7 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="2:12">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -17845,7 +17905,7 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="2:12">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -17858,7 +17918,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="2:12">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -17871,7 +17931,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="2:12">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -17884,7 +17944,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="2:12">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -17897,7 +17957,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="2:12">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -19340,7 +19400,7 @@
       <c r="K142" s="22"/>
       <c r="L142" s="22"/>
     </row>
-    <row r="143" spans="2:12" s="0" customFormat="1">
+    <row r="143" customFormat="1" spans="2:7">
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
@@ -19877,8 +19937,8 @@
     <mergeCell ref="B143:D143"/>
     <mergeCell ref="E143:G143"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="590" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="590" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,8 +56,8 @@
   </si>
   <si>
     <t>- 구매 서비스에 대해서, 다음 2가지 항목에 대해서 테스트 수행
-1. 입력란의 데이터무결성 검사
-2. 장바구니 &gt; 주문결제 페이지 이동</t>
+1. 수량 입력시 정상입력 여부 검사
+2. 주문결제 페이지 이동</t>
   </si>
   <si>
     <t xml:space="preserve">  테스트 시나리오 목적 :</t>
@@ -244,14 +244,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>[교재수량 - 최대구매수량 초과 입력- 입력불가 팝업의 화면 노출 및 자동초기화 여부 테스트]</t>
     </r>
     <r>
@@ -263,171 +255,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1. 교재수량 "10000" 입력</t>
+1. 교재수량 "1000" 입력</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>최대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>구매수량은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 9999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">." </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>팝업이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>화면에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">노출
-2. 교재 수량 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로 변경</t>
-    </r>
+    <t>1. "최대 구매수량은 999개입니다." 팝업이 화면에 노출
+2. 교재 수량 "999"로 변경</t>
   </si>
   <si>
     <r>
@@ -723,8 +556,8 @@
   <si>
     <t xml:space="preserve">- 장바구니 서비스에 대해서, 다음 3가지 항목에 대해서 테스트 수행
 1. DB와의 연동 검사
-2. 입력란의 데이터무결성 검사
-3. 장바구니 &gt; 주문결제 페이지 이동 여부
+2. 정보 입력시 정상입력 여부 검사
+3. 주문결제 페이지 이동 여부 검사
 </t>
   </si>
   <si>
@@ -744,25 +577,26 @@
     <t>[장바구니 페이지 출력 완료 - 장바구니 DB연동 및 READ 여부 테스트]</t>
   </si>
   <si>
-    <t>1. 사용자가 선택한 교재의 상품명 데이터를 DB로부터 읽어와 "리눅스마스터1급" 입력</t>
+    <t>1. 사용자가 선택한 교재의 상품명 데이터를 DB로부터 읽어와 교재명 
+"리눅스마스터1급" 입력</t>
   </si>
   <si>
     <t>F-BP-BC-02</t>
   </si>
   <si>
-    <t>1. 사용자가 선택한 교재의 판매가 데이터를 DB로부터 읽어와 "22,000원"입력</t>
+    <t>1. 사용자가 선택한 교재의 판매가 데이터를 DB로부터 읽어와 판매가 "22,000원"입력</t>
   </si>
   <si>
     <t>F-BP-BC-03</t>
   </si>
   <si>
-    <t>1. 사용자가 선택한 교재의 할인가 데이터를 DB로부터 읽어와 "19,000원"입력</t>
+    <t>1. 사용자가 선택한 교재의 할인가 데이터를 DB로부터 읽어와 할인가 "19,000원"입력</t>
   </si>
   <si>
     <t>F-BP-BC-04</t>
   </si>
   <si>
-    <t>1. 사용자가 선택한 교재의 수량 데이터를 DB로부터 읽어와 "1" 입력</t>
+    <t>1. 사용자가 선택한 교재의 수량 데이터를 DB로부터 읽어와 수량 "1" 입력</t>
   </si>
   <si>
     <r>
@@ -795,14 +629,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>[교재수량 - 최대구매수량 초과 입력- 입력불가 팝업 화면 노출 및 자동초기화 여부 테스트]</t>
     </r>
     <r>
@@ -814,7 +640,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1. 교재수량 "10000" 입력</t>
+1. 교재수량 "1000" 입력</t>
     </r>
   </si>
   <si>
@@ -1113,11 +939,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-1. 결제하기 버튼 클릭</t>
+1. "리눅스마스터 1급" 교재 삭제 버튼 클릭
+2. 확인 버튼 클릭
+3. 결제하기 버튼 클릭</t>
     </r>
   </si>
   <si>
-    <t>1. "장바구니에 상품이 없습니다." 팝업이 화면이 노출</t>
+    <t>1. "삭제하시겠습니까?" 팝업이 화면 
+에 노출
+2. 해당 교재가 목록에서 삭제
+3. "장바구니에 상품이 없습니다." 팝업이 화면이 노출</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1223,9 +1054,9 @@
     <t>주문결제 &gt; 배송정보(F-BP-BO-DI)</t>
   </si>
   <si>
-    <t>- 주문결제 서비스(배송정보)에 대해서, 다음 4가지 항목에 대해서 테스트 수행
+    <t>- 주문결제 서비스(배송정보)에 대해서, 다음 2가지 항목에 대해서 테스트 수행
 1. DB와의 연동 검사
-2. 입력란의 데이터무결성 검사</t>
+2. 정보 입력시 정상입력 여부 검사</t>
   </si>
   <si>
     <t>-주문결제 서비스를 개발, 결과를 테스트하여 정합성 검증</t>
@@ -1244,6 +1075,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[기본배송지 클릭 - 회원정보 DB연동 및 자동입력 여부 테스트]</t>
     </r>
     <r>
@@ -1298,6 +1137,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">[이름 입력 -정상입력 여부 테스트]
 </t>
     </r>
@@ -1320,6 +1167,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[연락처 선택 - 통신번호 선택 여부 테스트]</t>
     </r>
     <r>
@@ -1340,6 +1195,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[연락처 선택 - 통신번호 선택 여부 테스트]</t>
     </r>
     <r>
@@ -1363,6 +1226,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[연락처 입력 - 정상입력 여부 테스트]</t>
     </r>
     <r>
@@ -1386,6 +1257,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[주소 입력 - 정상입력 여부 테스트]</t>
     </r>
     <r>
@@ -1408,6 +1287,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송시 요청사항 - "부재시 경비실에 맡겨주세요. " 선택 - 정상선택 여부 테스트]</t>
     </r>
     <r>
@@ -1427,6 +1314,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송시 요청사항 - "부재시 휴대폰으로 연락 바랍니다. " 선택 - 정상선택 여부 테스트]</t>
     </r>
     <r>
@@ -1447,6 +1342,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송시 요청사항 - "집 앞에 놓아주세요. " 선택 - 정상선택 여부 테스트]</t>
     </r>
     <r>
@@ -1487,6 +1390,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송시 요청사항 - "직접입력" 선택 - 정상선택 여부 테스트]</t>
     </r>
     <r>
@@ -1520,9 +1431,14 @@
     <t>주문결제 &gt; 결제정보(F-BP-BO-PI)</t>
   </si>
   <si>
-    <t>- 주문결제 서비스(결제정보)에 대해서, 다음 4가지 항목에 대해서 테스트 수행
-1. DB와의 연동 검사
-2. 화면 동작 검사</t>
+    <t>- 주문결제 서비스(결제정보)에 대해서, 다음 1가지 항목에 대해서 테스트 수행
+1. 화면 동작 검사</t>
+  </si>
+  <si>
+    <t>- 사용자가 로그인하였고, 회원정보가 데이터베이스에 입력되었음을 가정
+- 회원정보DB (이름 : 이유의 / 연락처 : 010-1234-1234 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX)
+- 사용자 ID : Lee / PW : 1234
+- 사용자의 결제수단은 무통장입금으로 가정</t>
   </si>
   <si>
     <t>F-BP-BO-PI-01</t>
@@ -1873,9 +1789,10 @@
     <t>주문결제 &gt; 주문자동의(F-BP-BO-OA)</t>
   </si>
   <si>
-    <t>- 주문결제 서비스(주문자동의)에 대해서, 다음 4가지 항목에 대해서 테스트 수행
+    <t>- 주문결제 서비스(주문자동의)에 대해서, 다음 3가지 항목에 대해서 테스트 수행
 1. 화면 동작 검사
-2. 주문결제 &gt;  주문완료 페이지 이동 여부</t>
+2. 필수 입력 사항 작성 여부 검사
+3. 주문완료 페이지 이동 여부 검사</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2187,6 +2104,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[이름/연락처/주소/입금계좌/주문자동의 항목이 모두 입력,체크 되어있는 경우 - 결제하기 버튼 클릭 - 결제진행(확인/취소) 여부 팝업 화면 노출 여부 테스트]</t>
     </r>
     <r>
@@ -2220,6 +2145,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[이름/연락처/주소/입금계좌/주문자동의 항목이 모두 입력,체크 되어있는 경우 - 결제하기 버튼 클릭 - 
 확인 버튼 클릭 - 화면 이동 여부 테스트]</t>
     </r>
@@ -2256,6 +2189,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[이름/연락처/주소/입금계좌/주문자동의 항목이 모두 입력,체크 되어있는 경우 - 결제하기 버튼 클릭 - 
 취소 버튼 클릭 - 현재 화면 유지 
 여부 테스트]</t>
@@ -2293,6 +2234,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송정보 - 이름이 입력 되어있지 않은 경우(공백) - 결제하기 버튼 클릭 - 입력요구 팝업 화면 노출 및 포커스 이동 여부 테스트]</t>
     </r>
     <r>
@@ -2315,6 +2264,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송정보 - 연락처가 입력 되어있지 않은 경우(공백) - 결제하기 버튼 클릭 - 입력요구 팝업 화면 노출 및 포커스 이동 여부 테스트]</t>
     </r>
     <r>
@@ -2347,6 +2304,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송정보 - 연락처에 숫자 이외의 문자가 입력된 경우 - 결제하기 버튼 클릭 - 입력불가 팝업 화면 노출 및 초기화 및 포커스 이동 여부 테스트]</t>
     </r>
     <r>
@@ -2380,6 +2345,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송정보 - 주소가 입력 되어있지 않은 경우(공백) - 결제하기 버튼 클릭 - 입력요구 팝업 화면 노출 및 포커스 이동여부 테스트]</t>
     </r>
     <r>
@@ -2402,6 +2375,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[결제수단 - 입금계좌를 선택하지 않은 경우 - 결제하기 버튼 클릭 - 선택요구 팝업 화면 노출 및 포커스 이동여부 테스트]</t>
     </r>
     <r>
@@ -2424,6 +2405,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[주문자 동의 - 주문자 동의가 모두 체크되지 않은 경우 - 결제하기 버튼 클릭 - 동의요구 팝업 화면 노출 및 포커스 이동여부 테스트]</t>
     </r>
     <r>
@@ -2446,6 +2435,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[주문자 동의 - 주문자 동의가 1개만체크된 경우 - 결제하기 버튼 클릭 - 동의요구 팝업 화면 노출 및 포커스 이동여부 테스트]</t>
     </r>
     <r>
@@ -2468,6 +2465,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[주문자 동의 - 주문자 동의가 2개만체크된 경우 - 결제하기 버튼 클릭 - 동의요구 팝업 화면 노출 및 포커스 이동여부 테스트]</t>
     </r>
     <r>
@@ -2500,10 +2505,10 @@
 1. DB와의 연동 검사</t>
   </si>
   <si>
-    <t>- 사용자가 로그인하였고, 회원정보가 데이터베이스에 입력되었음을 가정
+    <t>- 사용자가 로그인하였고, 회원정보가 DB에 입력되었음을 가정
 - 회원정보 DB (이름 : 이유의 / 연락처 : 010-1234-1234 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX)
-- 주문결제 DB (이름 : 이유의 / 연락처 : 010-4106-1562 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX / 배송시 요청사항 : 부재시 경비실에 맡겨주세요. / 결제수단 : 무통장입금 / 입금은행 : 신한은행 / 입금계좌 : 110-394-207519 / 결제금액 : 99999원)
-- 사용자 ID : Lee / PW : 1234</t>
+- 사용자가 주문결제를 완료하여 구매정보가 주문결제 DB에 입력되었음을 가정
+- 주문결제 DB (이름 : 이유의 / 연락처 : 010-1234-1234 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX / 배송시 요청사항 : 부재시 경비실에 맡겨주세요. / 결제수단 : 무통장입금 / 입금은행 : 신한은행 / 입금계좌 : 110-394-207519 / 결제금액 : 99999원)</t>
   </si>
   <si>
     <t>F-BP-OC-DI-01</t>
@@ -2546,16 +2551,9 @@
     <t>주문완료 &gt; 결제정보(F-BP-OC-PI)</t>
   </si>
   <si>
-    <t>- 주문결제 서비스(결제정보)에 대해서, 다음 4가지 항목에 대해서 테스트 수행
+    <t>- 주문결제 서비스(결제정보)에 대해서, 다음 2가지 항목에 대해서 테스트 수행
 1. DB와의 연동 검사
-2. 주문완료 &gt; 구매페이지 or 마이페이지 이동 여부</t>
-  </si>
-  <si>
-    <t>- 사용자가 로그인하였고, 회원정보가 데이터베이스에 입력되었음을 가정
-- 회원정보 DB (이름 : 이유의 / 연락처 : 010-1234-1234 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX)
-- 사용자가 
-- 주문결제 DB (이름 : 이유의 / 연락처 : 010-4106-1562 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX / 배송시 요청사항 : 부재시 경비실에 맡겨주세요. / 결제수단 : 무통장입금 / 입금은행 : 신한은행 / 입금계좌 : 110-394-207519 / 결제금액 : 99999원)
-- 사용자 ID : Lee / PW : 1234</t>
+2. 교재구매 페이지 또는 마이페이지 이동 여부 검사</t>
   </si>
   <si>
     <t>F-BP-OC-PI-01</t>
@@ -2582,6 +2580,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[쇼핑 계속하기 버튼 클릭 - 교재구매 화면 이동 여부 테스트]</t>
     </r>
     <r>
@@ -2604,6 +2610,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[구매내역 확인 버튼 클릭 - 마이페이지 화면 이동 여부 테스트]</t>
     </r>
     <r>
@@ -2627,11 +2641,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dddd\,mmmm\ d\,yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="dddd\,mmmm\ d\,yyyy;@"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2724,14 +2738,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2745,6 +2751,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2792,8 +2814,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2808,7 +2854,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2833,38 +2879,6 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2902,37 +2916,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2956,25 +2958,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2998,6 +3000,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3010,7 +3018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3022,13 +3030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3040,7 +3042,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3052,19 +3066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3076,7 +3078,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3265,17 +3279,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3328,6 +3336,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3338,27 +3361,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3370,137 +3384,137 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3624,23 +3638,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3741,13 +3740,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4113,8 +4112,8 @@
   <sheetPr/>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4215,7 +4214,7 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="80" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="10"/>
@@ -4247,7 +4246,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:12">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="10"/>
@@ -4279,7 +4278,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="81" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -4336,12 +4335,12 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="51" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="29"/>
@@ -4353,15 +4352,15 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="52" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="53" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="39"/>
@@ -4373,15 +4372,15 @@
       <c r="L16" s="37"/>
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="53" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="39"/>
@@ -4393,15 +4392,15 @@
       <c r="L17" s="37"/>
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="39"/>
@@ -4413,55 +4412,55 @@
       <c r="L18" s="37"/>
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="21"/>
       <c r="J19" s="22"/>
       <c r="K19" s="32"/>
       <c r="L19" s="37"/>
     </row>
     <row r="20" ht="100" customHeight="1" spans="1:12">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="51" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="56"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="21"/>
       <c r="J20" s="22"/>
       <c r="K20" s="32"/>
       <c r="L20" s="37"/>
     </row>
     <row r="21" ht="100" customHeight="1" spans="1:12">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="21"/>
@@ -4473,15 +4472,15 @@
       <c r="L21" s="37"/>
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:12">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="21"/>
@@ -4493,36 +4492,36 @@
       <c r="L22" s="37"/>
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:13">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="54" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="71"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="56"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="21"/>
       <c r="M23" s="22"/>
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:12">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="54" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="21"/>
@@ -4534,19 +4533,19 @@
       <c r="L24" s="37"/>
     </row>
     <row r="25" ht="100" customHeight="1" spans="1:12">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="56" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="32"/>
       <c r="I25" s="36"/>
       <c r="J25" s="37"/>
@@ -4554,19 +4553,19 @@
       <c r="L25" s="37"/>
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:12">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="56" t="s">
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="32"/>
       <c r="I26" s="36"/>
       <c r="J26" s="37"/>
@@ -4577,16 +4576,16 @@
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="32"/>
       <c r="I27" s="36"/>
       <c r="J27" s="37"/>
@@ -4597,12 +4596,12 @@
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="56" t="s">
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="51" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="21"/>
@@ -4617,12 +4616,12 @@
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="56" t="s">
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="21"/>
@@ -4634,15 +4633,15 @@
       <c r="L29" s="37"/>
     </row>
     <row r="30" ht="100" customHeight="1" spans="1:12">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="56" t="s">
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="51" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="21"/>
@@ -4655,17 +4654,17 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="15"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="24"/>
@@ -6845,8 +6844,8 @@
   <sheetPr/>
   <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6949,7 +6948,7 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="80" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="10"/>
@@ -6981,7 +6980,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:12">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="10"/>
@@ -7013,7 +7012,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="81" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="14"/>
@@ -7067,14 +7066,14 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="33" t="s">
         <v>61</v>
       </c>
@@ -7087,14 +7086,14 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="33" t="s">
         <v>63</v>
       </c>
@@ -7107,14 +7106,14 @@
       <c r="L16" s="37"/>
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="33" t="s">
         <v>65</v>
       </c>
@@ -7127,35 +7126,35 @@
       <c r="L17" s="37"/>
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="33" t="s">
         <v>67</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="30"/>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="51" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="29"/>
@@ -7167,15 +7166,15 @@
       <c r="L19" s="37"/>
     </row>
     <row r="20" ht="100" customHeight="1" spans="1:12">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="52" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="53" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="39"/>
@@ -7187,15 +7186,15 @@
       <c r="L20" s="37"/>
     </row>
     <row r="21" ht="100" customHeight="1" spans="1:12">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="51" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="21"/>
@@ -7207,15 +7206,15 @@
       <c r="L21" s="37"/>
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:12">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="54" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="51" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="21"/>
@@ -7227,15 +7226,15 @@
       <c r="L22" s="37"/>
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:12">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="21"/>
@@ -7247,15 +7246,15 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:12">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="54" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="21"/>
@@ -7267,15 +7266,15 @@
       <c r="L24" s="37"/>
     </row>
     <row r="25" ht="100" customHeight="1" spans="1:12">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="54" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="21"/>
@@ -7287,15 +7286,15 @@
       <c r="L25" s="37"/>
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:12">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="54" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="51" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="21"/>
@@ -7307,19 +7306,19 @@
       <c r="L26" s="37"/>
     </row>
     <row r="27" ht="100" customHeight="1" spans="1:12">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
@@ -7327,10 +7326,10 @@
       <c r="L27" s="39"/>
     </row>
     <row r="28" ht="100" customHeight="1" spans="1:12">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="47" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="34"/>
@@ -7338,8 +7337,8 @@
       <c r="E28" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="32"/>
       <c r="I28" s="36"/>
       <c r="J28" s="37"/>
@@ -7347,19 +7346,19 @@
       <c r="L28" s="37"/>
     </row>
     <row r="29" ht="100" customHeight="1" spans="1:12">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="32"/>
       <c r="I29" s="36"/>
       <c r="J29" s="37"/>
@@ -7367,19 +7366,19 @@
       <c r="L29" s="37"/>
     </row>
     <row r="30" ht="100" customHeight="1" spans="1:12">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62" t="s">
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="32"/>
       <c r="I30" s="36"/>
       <c r="J30" s="37"/>
@@ -7387,19 +7386,19 @@
       <c r="L30" s="37"/>
     </row>
     <row r="31" ht="100" customHeight="1" spans="1:12">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62" t="s">
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="32"/>
       <c r="I31" s="36"/>
       <c r="J31" s="37"/>
@@ -7407,14 +7406,14 @@
       <c r="L31" s="37"/>
     </row>
     <row r="32" ht="100" customHeight="1" spans="1:12">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="33" t="s">
         <v>89</v>
       </c>
@@ -7427,14 +7426,14 @@
       <c r="L32" s="37"/>
     </row>
     <row r="33" ht="100" customHeight="1" spans="1:12">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="33" t="s">
         <v>91</v>
       </c>
@@ -7447,14 +7446,14 @@
       <c r="L33" s="39"/>
     </row>
     <row r="34" ht="100" customHeight="1" spans="1:12">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="33" t="s">
         <v>93</v>
       </c>
@@ -7466,15 +7465,15 @@
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
     </row>
-    <row r="35" ht="100" customHeight="1" spans="1:12">
-      <c r="A35" s="65" t="s">
+    <row r="35" ht="150" customHeight="1" spans="1:12">
+      <c r="A35" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="33" t="s">
         <v>95</v>
       </c>
@@ -7487,14 +7486,14 @@
       <c r="L35" s="39"/>
     </row>
     <row r="36" ht="100" customHeight="1" spans="1:12">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="33" t="s">
         <v>98</v>
       </c>
@@ -7507,14 +7506,14 @@
       <c r="L36" s="39"/>
     </row>
     <row r="37" ht="100" customHeight="1" spans="1:12">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="33" t="s">
         <v>100</v>
       </c>
@@ -7527,14 +7526,14 @@
       <c r="L37" s="37"/>
     </row>
     <row r="38" ht="100" customHeight="1" spans="1:12">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="33" t="s">
         <v>102</v>
       </c>
@@ -7547,10 +7546,10 @@
       <c r="L38" s="39"/>
     </row>
     <row r="39" ht="100" customHeight="1" spans="1:12">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="47" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="34"/>
@@ -9794,8 +9793,8 @@
   <sheetPr/>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9898,7 +9897,7 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="80" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="10"/>
@@ -9930,7 +9929,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:12">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="10"/>
@@ -9962,7 +9961,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="81" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -10019,7 +10018,7 @@
       <c r="A15" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="45" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="21"/>
@@ -10279,7 +10278,7 @@
       <c r="A28" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="45" t="s">
         <v>144</v>
       </c>
       <c r="C28" s="21"/>
@@ -12478,8 +12477,8 @@
   <sheetPr/>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12582,7 +12581,7 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="80" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="10"/>
@@ -12614,7 +12613,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:12">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="10"/>
@@ -12646,8 +12645,8 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A12" s="86" t="s">
-        <v>14</v>
+      <c r="A12" s="81" t="s">
+        <v>148</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -12701,35 +12700,35 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="49"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="44"/>
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -12741,15 +12740,15 @@
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
       <c r="A17" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -12761,15 +12760,15 @@
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -12781,15 +12780,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -12801,15 +12800,15 @@
     </row>
     <row r="20" ht="100" customHeight="1" spans="1:12">
       <c r="A20" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -12821,15 +12820,15 @@
     </row>
     <row r="21" ht="100" customHeight="1" spans="1:12">
       <c r="A21" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -12841,15 +12840,15 @@
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:12">
       <c r="A22" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -12861,15 +12860,15 @@
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:12">
       <c r="A23" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -12881,15 +12880,15 @@
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:12">
       <c r="A24" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -12901,15 +12900,15 @@
     </row>
     <row r="25" ht="100" customHeight="1" spans="1:12">
       <c r="A25" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -12921,15 +12920,15 @@
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:12">
       <c r="A26" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -12941,15 +12940,15 @@
     </row>
     <row r="27" ht="100" customHeight="1" spans="1:12">
       <c r="A27" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -15140,8 +15139,8 @@
   <sheetPr/>
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15174,7 +15173,7 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -15244,8 +15243,8 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
-      <c r="A8" s="85" t="s">
-        <v>178</v>
+      <c r="A8" s="80" t="s">
+        <v>179</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -15276,7 +15275,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:12">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="10"/>
@@ -15308,7 +15307,7 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="81" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="14"/>
@@ -15363,15 +15362,15 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -15383,15 +15382,15 @@
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -15403,15 +15402,15 @@
     </row>
     <row r="17" ht="120" customHeight="1" spans="1:12">
       <c r="A17" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -15423,15 +15422,15 @@
     </row>
     <row r="18" ht="120" customHeight="1" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -15443,15 +15442,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -15463,15 +15462,15 @@
     </row>
     <row r="20" ht="100" customHeight="1" spans="1:12">
       <c r="A20" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -15483,15 +15482,15 @@
     </row>
     <row r="21" ht="100" customHeight="1" spans="1:12">
       <c r="A21" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -15503,15 +15502,15 @@
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:12">
       <c r="A22" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -15523,15 +15522,15 @@
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:12">
       <c r="A23" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -15543,15 +15542,15 @@
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:12">
       <c r="A24" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -15563,15 +15562,15 @@
     </row>
     <row r="25" ht="250" customHeight="1" spans="1:12">
       <c r="A25" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
@@ -15583,15 +15582,15 @@
     </row>
     <row r="26" ht="270" customHeight="1" spans="1:12">
       <c r="A26" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
+        <v>209</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
@@ -15603,15 +15602,15 @@
     </row>
     <row r="27" ht="270" customHeight="1" spans="1:12">
       <c r="A27" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+        <v>211</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
@@ -15623,15 +15622,15 @@
     </row>
     <row r="28" ht="100" customHeight="1" spans="1:12">
       <c r="A28" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
@@ -15643,15 +15642,15 @@
     </row>
     <row r="29" ht="100" customHeight="1" spans="1:12">
       <c r="A29" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>215</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
@@ -15663,15 +15662,15 @@
     </row>
     <row r="30" ht="120" customHeight="1" spans="1:12">
       <c r="A30" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>216</v>
+        <v>206</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>217</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
@@ -15683,15 +15682,15 @@
     </row>
     <row r="31" ht="100" customHeight="1" spans="1:12">
       <c r="A31" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>218</v>
+        <v>206</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>219</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
@@ -15703,15 +15702,15 @@
     </row>
     <row r="32" ht="100" customHeight="1" spans="1:12">
       <c r="A32" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>221</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
@@ -15723,35 +15722,35 @@
     </row>
     <row r="33" ht="150" customHeight="1" spans="1:12">
       <c r="A33" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>222</v>
+        <v>206</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="46"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" ht="150" customHeight="1" spans="1:12">
       <c r="A34" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>224</v>
+        <v>206</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
       <c r="E34" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
@@ -15763,15 +15762,15 @@
     </row>
     <row r="35" ht="150" customHeight="1" spans="1:12">
       <c r="A35" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>226</v>
+        <v>206</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
@@ -17975,8 +17974,8 @@
   <sheetPr/>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18009,7 +18008,7 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18079,8 +18078,8 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
-      <c r="A8" s="85" t="s">
-        <v>229</v>
+      <c r="A8" s="80" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -18111,7 +18110,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:12">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="10"/>
@@ -18143,8 +18142,8 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A12" s="86" t="s">
-        <v>230</v>
+      <c r="A12" s="81" t="s">
+        <v>231</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -18198,15 +18197,15 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
@@ -18218,15 +18217,15 @@
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -18238,15 +18237,15 @@
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
       <c r="A17" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
@@ -18258,15 +18257,15 @@
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
@@ -18278,15 +18277,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
@@ -20443,8 +20442,8 @@
   <sheetPr/>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20477,7 +20476,7 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -20547,8 +20546,8 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
-      <c r="A8" s="85" t="s">
-        <v>244</v>
+      <c r="A8" s="80" t="s">
+        <v>245</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -20579,7 +20578,7 @@
       <c r="L9" s="27"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="1:12">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="80" t="s">
         <v>108</v>
       </c>
       <c r="B10" s="10"/>
@@ -20611,8 +20610,8 @@
       <c r="L11" s="27"/>
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A12" s="86" t="s">
-        <v>245</v>
+      <c r="A12" s="81" t="s">
+        <v>231</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -20669,7 +20668,7 @@
         <v>246</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
@@ -20689,7 +20688,7 @@
         <v>248</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -20709,7 +20708,7 @@
         <v>250</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>

--- a/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(유의).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12315" tabRatio="590" activeTab="4"/>
+    <workbookView windowWidth="24345" windowHeight="12315" tabRatio="590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="260">
   <si>
     <t>[교재구매]</t>
   </si>
@@ -56,22 +56,20 @@
   </si>
   <si>
     <t>- 구매 서비스에 대해서, 다음 2가지 항목에 대해서 테스트 수행
-1. 수량 입력시 정상입력 여부 검사
-2. 주문결제 페이지 이동</t>
+1. Input : 수량 입력시 정상입력 여부 검사
+2. location.href : 주문결제 페이지 이동 여부 검사</t>
   </si>
   <si>
     <t xml:space="preserve">  테스트 시나리오 목적 :</t>
   </si>
   <si>
-    <t>-구매 서비스를 개발, 결과를 테스트하여 정합성 검증</t>
+    <t>- 사용자가 교재구매를 함에 있어 정상적인 값이 입력되는지 검사한다.</t>
   </si>
   <si>
     <t xml:space="preserve">  가정 및 필요사항 :</t>
   </si>
   <si>
-    <t>- 사용자가 로그인하였고, 회원정보가 데이터베이스에 입력되었음을 가정
-- 회원정보DB (이름 : 이유의 / 연락처 : 010-1234-1234 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX)
-- 사용자 ID : Lee / PW : 1234</t>
+    <t>- 사용자가 교재구매를 위해 교재구매 페이지를 탐색하고있음을 가정</t>
   </si>
   <si>
     <t>STEP (ID)</t>
@@ -244,6 +242,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[교재수량 - 최대구매수량 초과 입력- 입력불가 팝업의 화면 노출 및 자동초기화 여부 테스트]</t>
     </r>
     <r>
@@ -555,20 +561,18 @@
   </si>
   <si>
     <t xml:space="preserve">- 장바구니 서비스에 대해서, 다음 3가지 항목에 대해서 테스트 수행
-1. DB와의 연동 검사
-2. 정보 입력시 정상입력 여부 검사
-3. 주문결제 페이지 이동 여부 검사
+1. DB와의 연동여부 검사
+2. Input : 수량 입력시 정상입력 여부 검사
+3. location.href : 주문결제 페이지 이동 여부 검사
 </t>
   </si>
   <si>
-    <t>-장바구니 서비스를 개발, 결과를 테스트하여 정합성 검증</t>
+    <t>- 사용자가 장바구니 목록을 탐색함에 있어 올바른 값과 결과가 입력되는지 검사한다.</t>
   </si>
   <si>
     <t>- 사용자가 로그인하였고, 회원정보가 데이터베이스에 입력되었음을 가정
 - 사용자가 교재를 장바구니에 추가하였음을 가정
-- 회원정보 DB (이름 : 이유의 / 연락처 : 010-1234-1234 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX)
-- 장바구니 DB (구매교재 : 리눅스마스터 1급 / 판매가 : 22,000원  / 할인가 : 19,000원 / 수량 : 1)
-- 사용자 ID : Lee / PW : 1234</t>
+- 사용자가 장바구니 목록을 확인하기 위해 장바구니 페이지를 탐색하고 있음을 가정</t>
   </si>
   <si>
     <t>F-BP-BC-01</t>
@@ -629,6 +633,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[교재수량 - 최대구매수량 초과 입력- 입력불가 팝업 화면 노출 및 자동초기화 여부 테스트]</t>
     </r>
     <r>
@@ -928,6 +940,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[목록에 교재가 없는 경우 - 결제하기 버튼 클릭 - 결제불가 팝업 화면 노출 여부 테스트]</t>
     </r>
     <r>
@@ -1062,6 +1082,10 @@
     <t>-주문결제 서비스를 개발, 결과를 테스트하여 정합성 검증</t>
   </si>
   <si>
+    <t xml:space="preserve">- 사용자가 로그인하였고, 회원정보가 데이터베이스에 입력되었음을 가정
+- </t>
+  </si>
+  <si>
     <t>F-BP-BO-DI-01</t>
   </si>
   <si>
@@ -1370,6 +1394,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[배송시 요청사항 - "집 앞에 놓아주세요." 선택 - 정상선택 여부 테스트]</t>
     </r>
     <r>
@@ -1793,6 +1825,11 @@
 1. 화면 동작 검사
 2. 필수 입력 사항 작성 여부 검사
 3. 주문완료 페이지 이동 여부 검사</t>
+  </si>
+  <si>
+    <t>- 사용자가 로그인하였고, 회원정보가 데이터베이스에 입력되었음을 가정
+- 회원정보DB (이름 : 이유의 / 연락처 : 010-1234-1234 / 주소 : 서울특별시 송파구 가락2동 쌍용APT XXX-XXXX)
+- 사용자 ID : Lee / PW : 1234</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2641,11 +2678,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dddd\,mmmm\ d\,yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dddd\,mmmm\ d\,yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2738,46 +2775,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -2793,16 +2790,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2814,9 +2819,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2826,6 +2846,30 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2854,7 +2898,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2869,14 +2913,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2910,12 +2947,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2940,13 +2971,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,13 +3001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2989,18 +3020,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3042,19 +3061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,19 +3073,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3091,6 +3104,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,39 +3301,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3316,6 +3320,32 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3353,11 +3383,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3366,13 +3403,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3384,130 +3421,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3740,13 +3777,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4112,8 +4149,8 @@
   <sheetPr/>
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4187,7 +4224,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -6921,7 +6958,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -9793,8 +9830,8 @@
   <sheetPr/>
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9870,7 +9907,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -9962,7 +9999,7 @@
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
       <c r="A12" s="81" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -10016,15 +10053,15 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
@@ -10036,15 +10073,15 @@
     </row>
     <row r="16" ht="150" customHeight="1" spans="1:12">
       <c r="A16" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -10056,15 +10093,15 @@
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
       <c r="A17" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -10076,15 +10113,15 @@
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
@@ -10096,15 +10133,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -10116,15 +10153,15 @@
     </row>
     <row r="20" ht="100" customHeight="1" spans="1:12">
       <c r="A20" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -10136,15 +10173,15 @@
     </row>
     <row r="21" ht="100" customHeight="1" spans="1:12">
       <c r="A21" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -10156,15 +10193,15 @@
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:12">
       <c r="A22" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -10176,15 +10213,15 @@
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:12">
       <c r="A23" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -10196,15 +10233,15 @@
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:12">
       <c r="A24" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -10216,15 +10253,15 @@
     </row>
     <row r="25" ht="100" customHeight="1" spans="1:12">
       <c r="A25" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -10236,15 +10273,15 @@
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:12">
       <c r="A26" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -10256,15 +10293,15 @@
     </row>
     <row r="27" ht="100" customHeight="1" spans="1:12">
       <c r="A27" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -10276,15 +10313,15 @@
     </row>
     <row r="28" ht="100" customHeight="1" spans="1:12">
       <c r="A28" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
@@ -12478,7 +12515,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12511,7 +12548,7 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -12554,7 +12591,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -12582,7 +12619,7 @@
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
       <c r="A8" s="80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -12646,7 +12683,7 @@
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
       <c r="A12" s="81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -12700,15 +12737,15 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -12720,15 +12757,15 @@
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -12740,15 +12777,15 @@
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
       <c r="A17" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -12760,15 +12797,15 @@
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -12780,15 +12817,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -12800,15 +12837,15 @@
     </row>
     <row r="20" ht="100" customHeight="1" spans="1:12">
       <c r="A20" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -12820,15 +12857,15 @@
     </row>
     <row r="21" ht="100" customHeight="1" spans="1:12">
       <c r="A21" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -12840,15 +12877,15 @@
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:12">
       <c r="A22" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -12860,15 +12897,15 @@
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:12">
       <c r="A23" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -12880,15 +12917,15 @@
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:12">
       <c r="A24" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -12900,15 +12937,15 @@
     </row>
     <row r="25" ht="100" customHeight="1" spans="1:12">
       <c r="A25" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -12920,15 +12957,15 @@
     </row>
     <row r="26" ht="100" customHeight="1" spans="1:12">
       <c r="A26" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -12940,15 +12977,15 @@
     </row>
     <row r="27" ht="100" customHeight="1" spans="1:12">
       <c r="A27" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -15139,8 +15176,8 @@
   <sheetPr/>
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -15173,7 +15210,7 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -15216,7 +15253,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -15244,7 +15281,7 @@
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
       <c r="A8" s="80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -15308,7 +15345,7 @@
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
       <c r="A12" s="81" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -15362,15 +15399,15 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="40" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -15382,15 +15419,15 @@
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -15402,15 +15439,15 @@
     </row>
     <row r="17" ht="120" customHeight="1" spans="1:12">
       <c r="A17" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -15422,15 +15459,15 @@
     </row>
     <row r="18" ht="120" customHeight="1" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -15442,15 +15479,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -15462,15 +15499,15 @@
     </row>
     <row r="20" ht="100" customHeight="1" spans="1:12">
       <c r="A20" s="31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -15482,15 +15519,15 @@
     </row>
     <row r="21" ht="100" customHeight="1" spans="1:12">
       <c r="A21" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
@@ -15502,15 +15539,15 @@
     </row>
     <row r="22" ht="100" customHeight="1" spans="1:12">
       <c r="A22" s="31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -15522,15 +15559,15 @@
     </row>
     <row r="23" ht="100" customHeight="1" spans="1:12">
       <c r="A23" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -15542,15 +15579,15 @@
     </row>
     <row r="24" ht="100" customHeight="1" spans="1:12">
       <c r="A24" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -15562,15 +15599,15 @@
     </row>
     <row r="25" ht="250" customHeight="1" spans="1:12">
       <c r="A25" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
@@ -15582,15 +15619,15 @@
     </row>
     <row r="26" ht="270" customHeight="1" spans="1:12">
       <c r="A26" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
@@ -15602,15 +15639,15 @@
     </row>
     <row r="27" ht="270" customHeight="1" spans="1:12">
       <c r="A27" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
@@ -15622,15 +15659,15 @@
     </row>
     <row r="28" ht="100" customHeight="1" spans="1:12">
       <c r="A28" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
@@ -15642,15 +15679,15 @@
     </row>
     <row r="29" ht="100" customHeight="1" spans="1:12">
       <c r="A29" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
@@ -15662,15 +15699,15 @@
     </row>
     <row r="30" ht="120" customHeight="1" spans="1:12">
       <c r="A30" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
@@ -15682,15 +15719,15 @@
     </row>
     <row r="31" ht="100" customHeight="1" spans="1:12">
       <c r="A31" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
@@ -15702,15 +15739,15 @@
     </row>
     <row r="32" ht="100" customHeight="1" spans="1:12">
       <c r="A32" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
@@ -15722,15 +15759,15 @@
     </row>
     <row r="33" ht="150" customHeight="1" spans="1:12">
       <c r="A33" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
@@ -15742,15 +15779,15 @@
     </row>
     <row r="34" ht="150" customHeight="1" spans="1:12">
       <c r="A34" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
       <c r="E34" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
@@ -15762,15 +15799,15 @@
     </row>
     <row r="35" ht="150" customHeight="1" spans="1:12">
       <c r="A35" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
@@ -17975,7 +18012,7 @@
   <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -18008,7 +18045,7 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -18051,7 +18088,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -18079,7 +18116,7 @@
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
       <c r="A8" s="80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -18143,7 +18180,7 @@
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
       <c r="A12" s="81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -18197,15 +18234,15 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
@@ -18217,15 +18254,15 @@
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>235</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -18237,15 +18274,15 @@
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
       <c r="A17" s="31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
@@ -18257,15 +18294,15 @@
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
       <c r="A18" s="31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
@@ -18277,15 +18314,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
@@ -20442,8 +20479,8 @@
   <sheetPr/>
   <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:L8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20476,7 +20513,7 @@
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -20519,7 +20556,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="6">
-        <v>43731</v>
+        <v>43767</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -20547,7 +20584,7 @@
     </row>
     <row r="8" ht="63.75" customHeight="1" spans="1:12">
       <c r="A8" s="80" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -20611,7 +20648,7 @@
     </row>
     <row r="12" ht="100.5" customHeight="1" spans="1:12">
       <c r="A12" s="81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -20665,15 +20702,15 @@
     </row>
     <row r="15" ht="100" customHeight="1" spans="1:12">
       <c r="A15" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
@@ -20685,15 +20722,15 @@
     </row>
     <row r="16" ht="100" customHeight="1" spans="1:12">
       <c r="A16" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
@@ -20705,15 +20742,15 @@
     </row>
     <row r="17" ht="100" customHeight="1" spans="1:12">
       <c r="A17" s="16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="E17" s="20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
@@ -20725,15 +20762,15 @@
     </row>
     <row r="18" ht="100" customHeight="1" spans="1:12">
       <c r="A18" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
@@ -20745,15 +20782,15 @@
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:12">
       <c r="A19" s="16" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
